--- a/roadmap.xlsx
+++ b/roadmap.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="131">
   <si>
     <t>Создание иконки героя</t>
   </si>
@@ -327,15 +327,6 @@
     <t>вывод подбираемых бонусов (визуально наблюдается изменение цвета)</t>
   </si>
   <si>
-    <t>Не выходил за пределы экрана</t>
-  </si>
-  <si>
-    <t>Переменные границ</t>
-  </si>
-  <si>
-    <t>Чтобы можно было увеличивать значения со временем</t>
-  </si>
-  <si>
     <t>Типы стрельбы босса</t>
   </si>
   <si>
@@ -406,6 +397,18 @@
   </si>
   <si>
     <t>вывод индикатора ярости у босса</t>
+  </si>
+  <si>
+    <t>Башня</t>
+  </si>
+  <si>
+    <t>Камикадзе</t>
+  </si>
+  <si>
+    <t>Летит медленно(создается эффект стояния на месте). Может поворачиваться в сторону игрока и стрелять по нему переменным огнем.</t>
+  </si>
+  <si>
+    <t>Всегда летит на игрока, при столкновении с ним взрывается. Если через некоторое время не попал, то взрывается.</t>
   </si>
 </sst>
 </file>
@@ -692,6 +695,42 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -739,42 +778,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1409,7 +1412,7 @@
   <dimension ref="A1:AV54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AS6" sqref="AS6:AV7"/>
+      <selection activeCell="AK22" sqref="AK22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1789,12 +1792,12 @@
       <c r="AH6" s="80"/>
       <c r="AI6" s="80"/>
       <c r="AJ6" s="80"/>
-      <c r="AK6" s="116" t="s">
+      <c r="AK6" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="AL6" s="116"/>
-      <c r="AM6" s="116"/>
-      <c r="AN6" s="116"/>
+      <c r="AL6" s="80"/>
+      <c r="AM6" s="80"/>
+      <c r="AN6" s="80"/>
       <c r="AO6" s="70" t="s">
         <v>51</v>
       </c>
@@ -1845,10 +1848,10 @@
       <c r="AH7" s="80"/>
       <c r="AI7" s="80"/>
       <c r="AJ7" s="80"/>
-      <c r="AK7" s="116"/>
-      <c r="AL7" s="116"/>
-      <c r="AM7" s="116"/>
-      <c r="AN7" s="116"/>
+      <c r="AK7" s="80"/>
+      <c r="AL7" s="80"/>
+      <c r="AM7" s="80"/>
+      <c r="AN7" s="80"/>
       <c r="AO7" s="70"/>
       <c r="AP7" s="70"/>
       <c r="AQ7" s="70"/>
@@ -1910,7 +1913,7 @@
       <c r="AI8" s="80"/>
       <c r="AJ8" s="80"/>
       <c r="AK8" s="70" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AL8" s="70"/>
       <c r="AM8" s="70"/>
@@ -1921,12 +1924,12 @@
       <c r="AP8" s="72"/>
       <c r="AQ8" s="72"/>
       <c r="AR8" s="73"/>
-      <c r="AS8" s="70" t="s">
+      <c r="AS8" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="AT8" s="70"/>
-      <c r="AU8" s="70"/>
-      <c r="AV8" s="70"/>
+      <c r="AT8" s="116"/>
+      <c r="AU8" s="116"/>
+      <c r="AV8" s="116"/>
     </row>
     <row r="9" spans="1:48">
       <c r="A9" s="105"/>
@@ -1973,10 +1976,10 @@
       <c r="AP9" s="75"/>
       <c r="AQ9" s="75"/>
       <c r="AR9" s="76"/>
-      <c r="AS9" s="70"/>
-      <c r="AT9" s="70"/>
-      <c r="AU9" s="70"/>
-      <c r="AV9" s="70"/>
+      <c r="AS9" s="116"/>
+      <c r="AT9" s="116"/>
+      <c r="AU9" s="116"/>
+      <c r="AV9" s="116"/>
     </row>
     <row r="10" spans="1:48" ht="15" customHeight="1">
       <c r="A10" s="105"/>
@@ -2037,12 +2040,12 @@
       <c r="AL10" s="118"/>
       <c r="AM10" s="118"/>
       <c r="AN10" s="119"/>
-      <c r="AO10" s="70" t="s">
+      <c r="AO10" s="116" t="s">
         <v>87</v>
       </c>
-      <c r="AP10" s="70"/>
-      <c r="AQ10" s="70"/>
-      <c r="AR10" s="70"/>
+      <c r="AP10" s="116"/>
+      <c r="AQ10" s="116"/>
+      <c r="AR10" s="116"/>
       <c r="AS10" s="70" t="s">
         <v>55</v>
       </c>
@@ -2091,10 +2094,10 @@
       <c r="AL11" s="121"/>
       <c r="AM11" s="121"/>
       <c r="AN11" s="122"/>
-      <c r="AO11" s="70"/>
-      <c r="AP11" s="70"/>
-      <c r="AQ11" s="70"/>
-      <c r="AR11" s="70"/>
+      <c r="AO11" s="116"/>
+      <c r="AP11" s="116"/>
+      <c r="AQ11" s="116"/>
+      <c r="AR11" s="116"/>
       <c r="AS11" s="70"/>
       <c r="AT11" s="70"/>
       <c r="AU11" s="70"/>
@@ -2149,12 +2152,12 @@
       <c r="AL12" s="107"/>
       <c r="AM12" s="107"/>
       <c r="AN12" s="107"/>
-      <c r="AO12" s="70" t="s">
+      <c r="AO12" s="116" t="s">
         <v>89</v>
       </c>
-      <c r="AP12" s="70"/>
-      <c r="AQ12" s="70"/>
-      <c r="AR12" s="70"/>
+      <c r="AP12" s="116"/>
+      <c r="AQ12" s="116"/>
+      <c r="AR12" s="116"/>
       <c r="AS12" s="107"/>
       <c r="AT12" s="107"/>
       <c r="AU12" s="107"/>
@@ -2201,10 +2204,10 @@
       <c r="AL13" s="107"/>
       <c r="AM13" s="107"/>
       <c r="AN13" s="107"/>
-      <c r="AO13" s="70"/>
-      <c r="AP13" s="70"/>
-      <c r="AQ13" s="70"/>
-      <c r="AR13" s="70"/>
+      <c r="AO13" s="116"/>
+      <c r="AP13" s="116"/>
+      <c r="AQ13" s="116"/>
+      <c r="AR13" s="116"/>
       <c r="AS13" s="107"/>
       <c r="AT13" s="107"/>
       <c r="AU13" s="107"/>
@@ -2346,14 +2349,14 @@
       <c r="M18" s="143" t="s">
         <v>67</v>
       </c>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="19"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="31"/>
     </row>
     <row r="19" spans="3:37">
       <c r="C19" s="37"/>
@@ -2364,15 +2367,15 @@
       <c r="H19" s="44"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="22"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="34"/>
       <c r="X19" s="137" t="s">
         <v>85</v>
       </c>
@@ -2389,27 +2392,27 @@
         <v>60</v>
       </c>
       <c r="D20" s="39"/>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="13"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="25"/>
       <c r="K20" s="2"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="23" t="s">
+      <c r="M20" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="N20" s="24"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="29" t="s">
+      <c r="N20" s="8"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="31"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="15"/>
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
       <c r="X20" s="140"/>
@@ -2424,21 +2427,21 @@
     <row r="21" spans="3:37" ht="15" customHeight="1">
       <c r="C21" s="39"/>
       <c r="D21" s="39"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="28"/>
       <c r="K21" s="2"/>
       <c r="L21" s="3"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="34"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="18"/>
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
       <c r="X21" s="130" t="s">
@@ -2459,12 +2462,12 @@
         <v>62</v>
       </c>
       <c r="D22" s="41"/>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="13"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="25"/>
       <c r="K22" s="2"/>
       <c r="L22" s="3"/>
       <c r="M22" s="71" t="s">
@@ -2472,14 +2475,14 @@
       </c>
       <c r="N22" s="72"/>
       <c r="O22" s="73"/>
-      <c r="P22" s="29" t="s">
+      <c r="P22" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="31"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="15"/>
       <c r="V22" s="4"/>
       <c r="W22" s="4"/>
       <c r="X22" s="130"/>
@@ -2494,45 +2497,41 @@
     <row r="23" spans="3:37">
       <c r="C23" s="42"/>
       <c r="D23" s="43"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="28"/>
       <c r="K23" s="2"/>
       <c r="L23" s="3"/>
       <c r="M23" s="74"/>
       <c r="N23" s="75"/>
       <c r="O23" s="76"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="33"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="33"/>
-      <c r="U23" s="34"/>
-      <c r="X23" s="107" t="s">
-        <v>90</v>
-      </c>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="18"/>
+      <c r="X23" s="107"/>
       <c r="Y23" s="107"/>
       <c r="Z23" s="107"/>
       <c r="AA23" s="107"/>
-      <c r="AB23" s="77" t="s">
-        <v>103</v>
-      </c>
+      <c r="AB23" s="77"/>
       <c r="AC23" s="78"/>
       <c r="AD23" s="78"/>
       <c r="AE23" s="79"/>
     </row>
     <row r="24" spans="3:37">
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="11" t="s">
+      <c r="D24" s="20"/>
+      <c r="E24" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="13"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="25"/>
       <c r="K24" s="2"/>
       <c r="L24" s="3"/>
       <c r="M24" s="45"/>
@@ -2554,12 +2553,12 @@
       <c r="AE24" s="60"/>
     </row>
     <row r="25" spans="3:37">
-      <c r="C25" s="9"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="16"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="28"/>
       <c r="K25" s="2"/>
       <c r="L25" s="3"/>
       <c r="M25" s="47"/>
@@ -2571,30 +2570,26 @@
       <c r="S25" s="51"/>
       <c r="T25" s="51"/>
       <c r="U25" s="52"/>
-      <c r="X25" s="107" t="s">
-        <v>104</v>
-      </c>
+      <c r="X25" s="107"/>
       <c r="Y25" s="107"/>
       <c r="Z25" s="107"/>
       <c r="AA25" s="107"/>
-      <c r="AB25" s="77" t="s">
-        <v>105</v>
-      </c>
+      <c r="AB25" s="77"/>
       <c r="AC25" s="78"/>
       <c r="AD25" s="78"/>
       <c r="AE25" s="79"/>
     </row>
     <row r="26" spans="3:37">
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="11" t="s">
+      <c r="D26" s="20"/>
+      <c r="E26" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="13"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="25"/>
       <c r="K26" s="2"/>
       <c r="L26" s="3"/>
       <c r="M26" s="45"/>
@@ -2616,12 +2611,12 @@
       <c r="AE26" s="60"/>
     </row>
     <row r="27" spans="3:37">
-      <c r="C27" s="9"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="16"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="28"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="47"/>
@@ -2730,7 +2725,7 @@
     </row>
     <row r="32" spans="3:37">
       <c r="I32" s="144" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J32" s="144"/>
       <c r="K32" s="144"/>
@@ -2754,17 +2749,17 @@
       <c r="AE33" s="107"/>
     </row>
     <row r="34" spans="2:32">
-      <c r="M34" s="17" t="s">
+      <c r="M34" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="N34" s="18"/>
-      <c r="O34" s="18"/>
-      <c r="P34" s="18"/>
-      <c r="Q34" s="18"/>
-      <c r="R34" s="18"/>
-      <c r="S34" s="18"/>
-      <c r="T34" s="18"/>
-      <c r="U34" s="19"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="30"/>
+      <c r="S34" s="30"/>
+      <c r="T34" s="30"/>
+      <c r="U34" s="31"/>
       <c r="X34" s="107"/>
       <c r="Y34" s="107"/>
       <c r="Z34" s="107"/>
@@ -2785,15 +2780,15 @@
       <c r="E35" s="44"/>
       <c r="F35" s="44"/>
       <c r="G35" s="44"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="21"/>
-      <c r="S35" s="21"/>
-      <c r="T35" s="21"/>
-      <c r="U35" s="22"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="33"/>
+      <c r="S35" s="33"/>
+      <c r="T35" s="33"/>
+      <c r="U35" s="34"/>
       <c r="X35" s="107"/>
       <c r="Y35" s="107"/>
       <c r="Z35" s="107"/>
@@ -2810,19 +2805,19 @@
       <c r="E36" s="44"/>
       <c r="F36" s="44"/>
       <c r="G36" s="44"/>
-      <c r="M36" s="23" t="s">
+      <c r="M36" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="N36" s="24"/>
-      <c r="O36" s="25"/>
-      <c r="P36" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="30"/>
-      <c r="S36" s="30"/>
-      <c r="T36" s="30"/>
-      <c r="U36" s="31"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="15"/>
       <c r="X36" s="107"/>
       <c r="Y36" s="107"/>
       <c r="Z36" s="107"/>
@@ -2837,362 +2832,406 @@
         <v>71</v>
       </c>
       <c r="C37" s="39"/>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="13"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="28"/>
-      <c r="P37" s="32"/>
-      <c r="Q37" s="33"/>
-      <c r="R37" s="33"/>
-      <c r="S37" s="33"/>
-      <c r="T37" s="33"/>
-      <c r="U37" s="34"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="25"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="18"/>
     </row>
     <row r="38" spans="2:32" ht="25.5" customHeight="1">
       <c r="B38" s="39"/>
       <c r="C38" s="39"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="16"/>
-      <c r="M38" s="23" t="s">
+      <c r="D38" s="26"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="28"/>
+      <c r="M38" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="N38" s="24"/>
-      <c r="O38" s="25"/>
-      <c r="P38" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q38" s="30"/>
-      <c r="R38" s="30"/>
-      <c r="S38" s="30"/>
-      <c r="T38" s="30"/>
-      <c r="U38" s="31"/>
-      <c r="X38" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y38" s="18"/>
-      <c r="Z38" s="18"/>
-      <c r="AA38" s="18"/>
-      <c r="AB38" s="18"/>
-      <c r="AC38" s="18"/>
-      <c r="AD38" s="18"/>
-      <c r="AE38" s="18"/>
-      <c r="AF38" s="19"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="15"/>
+      <c r="X38" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y38" s="30"/>
+      <c r="Z38" s="30"/>
+      <c r="AA38" s="30"/>
+      <c r="AB38" s="30"/>
+      <c r="AC38" s="30"/>
+      <c r="AD38" s="30"/>
+      <c r="AE38" s="30"/>
+      <c r="AF38" s="31"/>
     </row>
     <row r="39" spans="2:32" ht="22.5" customHeight="1">
       <c r="B39" s="40" t="s">
         <v>73</v>
       </c>
       <c r="C39" s="41"/>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="13"/>
-      <c r="M39" s="26"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="28"/>
-      <c r="P39" s="32"/>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="33"/>
-      <c r="S39" s="33"/>
-      <c r="T39" s="33"/>
-      <c r="U39" s="34"/>
-      <c r="X39" s="20"/>
-      <c r="Y39" s="21"/>
-      <c r="Z39" s="21"/>
-      <c r="AA39" s="21"/>
-      <c r="AB39" s="21"/>
-      <c r="AC39" s="21"/>
-      <c r="AD39" s="21"/>
-      <c r="AE39" s="21"/>
-      <c r="AF39" s="22"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="25"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="17"/>
+      <c r="U39" s="18"/>
+      <c r="X39" s="32"/>
+      <c r="Y39" s="33"/>
+      <c r="Z39" s="33"/>
+      <c r="AA39" s="33"/>
+      <c r="AB39" s="33"/>
+      <c r="AC39" s="33"/>
+      <c r="AD39" s="33"/>
+      <c r="AE39" s="33"/>
+      <c r="AF39" s="34"/>
     </row>
     <row r="40" spans="2:32" ht="33" customHeight="1">
       <c r="B40" s="42"/>
       <c r="C40" s="43"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="16"/>
-      <c r="M40" s="23" t="s">
+      <c r="D40" s="26"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="28"/>
+      <c r="M40" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="N40" s="24"/>
-      <c r="O40" s="25"/>
-      <c r="P40" s="29" t="s">
+      <c r="N40" s="8"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="Q40" s="30"/>
-      <c r="R40" s="30"/>
-      <c r="S40" s="30"/>
-      <c r="T40" s="30"/>
-      <c r="U40" s="31"/>
-      <c r="X40" s="23" t="s">
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="15"/>
+      <c r="X40" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="9"/>
+      <c r="AA40" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB40" s="14"/>
+      <c r="AC40" s="14"/>
+      <c r="AD40" s="14"/>
+      <c r="AE40" s="14"/>
+      <c r="AF40" s="15"/>
+    </row>
+    <row r="41" spans="2:32">
+      <c r="M41" s="10"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="17"/>
+      <c r="S41" s="17"/>
+      <c r="T41" s="17"/>
+      <c r="U41" s="18"/>
+      <c r="X41" s="10"/>
+      <c r="Y41" s="11"/>
+      <c r="Z41" s="12"/>
+      <c r="AA41" s="16"/>
+      <c r="AB41" s="17"/>
+      <c r="AC41" s="17"/>
+      <c r="AD41" s="17"/>
+      <c r="AE41" s="17"/>
+      <c r="AF41" s="18"/>
+    </row>
+    <row r="42" spans="2:32">
+      <c r="M42" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="N42" s="8"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="15"/>
+      <c r="X42" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="9"/>
+      <c r="AA42" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB42" s="14"/>
+      <c r="AC42" s="14"/>
+      <c r="AD42" s="14"/>
+      <c r="AE42" s="14"/>
+      <c r="AF42" s="15"/>
+    </row>
+    <row r="43" spans="2:32">
+      <c r="B43" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="31"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="17"/>
+      <c r="S43" s="17"/>
+      <c r="T43" s="17"/>
+      <c r="U43" s="18"/>
+      <c r="X43" s="10"/>
+      <c r="Y43" s="11"/>
+      <c r="Z43" s="12"/>
+      <c r="AA43" s="16"/>
+      <c r="AB43" s="17"/>
+      <c r="AC43" s="17"/>
+      <c r="AD43" s="17"/>
+      <c r="AE43" s="17"/>
+      <c r="AF43" s="18"/>
+    </row>
+    <row r="44" spans="2:32">
+      <c r="B44" s="32"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="34"/>
+      <c r="M44" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="N44" s="8"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="14"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="15"/>
+      <c r="X44" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y44" s="8"/>
+      <c r="Z44" s="9"/>
+      <c r="AA44" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB44" s="14"/>
+      <c r="AC44" s="14"/>
+      <c r="AD44" s="14"/>
+      <c r="AE44" s="14"/>
+      <c r="AF44" s="15"/>
+    </row>
+    <row r="45" spans="2:32">
+      <c r="B45" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="15"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="16"/>
+      <c r="Q45" s="17"/>
+      <c r="R45" s="17"/>
+      <c r="S45" s="17"/>
+      <c r="T45" s="17"/>
+      <c r="U45" s="18"/>
+      <c r="X45" s="10"/>
+      <c r="Y45" s="11"/>
+      <c r="Z45" s="12"/>
+      <c r="AA45" s="16"/>
+      <c r="AB45" s="17"/>
+      <c r="AC45" s="17"/>
+      <c r="AD45" s="17"/>
+      <c r="AE45" s="17"/>
+      <c r="AF45" s="18"/>
+    </row>
+    <row r="46" spans="2:32">
+      <c r="B46" s="10"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="18"/>
+      <c r="X46" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="Y40" s="24"/>
-      <c r="Z40" s="25"/>
-      <c r="AA40" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="AB40" s="30"/>
-      <c r="AC40" s="30"/>
-      <c r="AD40" s="30"/>
-      <c r="AE40" s="30"/>
-      <c r="AF40" s="31"/>
-    </row>
-    <row r="41" spans="2:32">
-      <c r="M41" s="26"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="28"/>
-      <c r="P41" s="32"/>
-      <c r="Q41" s="33"/>
-      <c r="R41" s="33"/>
-      <c r="S41" s="33"/>
-      <c r="T41" s="33"/>
-      <c r="U41" s="34"/>
-      <c r="X41" s="26"/>
-      <c r="Y41" s="27"/>
-      <c r="Z41" s="28"/>
-      <c r="AA41" s="32"/>
-      <c r="AB41" s="33"/>
-      <c r="AC41" s="33"/>
-      <c r="AD41" s="33"/>
-      <c r="AE41" s="33"/>
-      <c r="AF41" s="34"/>
-    </row>
-    <row r="42" spans="2:32">
-      <c r="X42" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y42" s="24"/>
-      <c r="Z42" s="25"/>
-      <c r="AA42" s="29" t="s">
+      <c r="Y46" s="8"/>
+      <c r="Z46" s="9"/>
+      <c r="AA46" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="AB42" s="30"/>
-      <c r="AC42" s="30"/>
-      <c r="AD42" s="30"/>
-      <c r="AE42" s="30"/>
-      <c r="AF42" s="31"/>
-    </row>
-    <row r="43" spans="2:32">
-      <c r="B43" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="19"/>
-      <c r="X43" s="26"/>
-      <c r="Y43" s="27"/>
-      <c r="Z43" s="28"/>
-      <c r="AA43" s="32"/>
-      <c r="AB43" s="33"/>
-      <c r="AC43" s="33"/>
-      <c r="AD43" s="33"/>
-      <c r="AE43" s="33"/>
-      <c r="AF43" s="34"/>
-    </row>
-    <row r="44" spans="2:32">
-      <c r="B44" s="20"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="22"/>
-      <c r="X44" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y44" s="24"/>
-      <c r="Z44" s="25"/>
-      <c r="AA44" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB44" s="30"/>
-      <c r="AC44" s="30"/>
-      <c r="AD44" s="30"/>
-      <c r="AE44" s="30"/>
-      <c r="AF44" s="31"/>
-    </row>
-    <row r="45" spans="2:32">
-      <c r="B45" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="29" t="s">
+      <c r="AB46" s="14"/>
+      <c r="AC46" s="14"/>
+      <c r="AD46" s="14"/>
+      <c r="AE46" s="14"/>
+      <c r="AF46" s="15"/>
+    </row>
+    <row r="47" spans="2:32">
+      <c r="B47" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="15"/>
+      <c r="X47" s="10"/>
+      <c r="Y47" s="11"/>
+      <c r="Z47" s="12"/>
+      <c r="AA47" s="16"/>
+      <c r="AB47" s="17"/>
+      <c r="AC47" s="17"/>
+      <c r="AD47" s="17"/>
+      <c r="AE47" s="17"/>
+      <c r="AF47" s="18"/>
+    </row>
+    <row r="48" spans="2:32">
+      <c r="B48" s="10"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="18"/>
+    </row>
+    <row r="49" spans="2:10">
+      <c r="B49" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="15"/>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" s="10"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="18"/>
+    </row>
+    <row r="51" spans="2:10">
+      <c r="B51" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="31"/>
-      <c r="X45" s="26"/>
-      <c r="Y45" s="27"/>
-      <c r="Z45" s="28"/>
-      <c r="AA45" s="32"/>
-      <c r="AB45" s="33"/>
-      <c r="AC45" s="33"/>
-      <c r="AD45" s="33"/>
-      <c r="AE45" s="33"/>
-      <c r="AF45" s="34"/>
-    </row>
-    <row r="46" spans="2:32">
-      <c r="B46" s="26"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
-      <c r="J46" s="34"/>
-      <c r="X46" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y46" s="24"/>
-      <c r="Z46" s="25"/>
-      <c r="AA46" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB46" s="30"/>
-      <c r="AC46" s="30"/>
-      <c r="AD46" s="30"/>
-      <c r="AE46" s="30"/>
-      <c r="AF46" s="31"/>
-    </row>
-    <row r="47" spans="2:32">
-      <c r="B47" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="C47" s="24"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="29" t="s">
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="15"/>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52" s="10"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="18"/>
+    </row>
+    <row r="53" spans="2:10">
+      <c r="B53" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="31"/>
-      <c r="X47" s="26"/>
-      <c r="Y47" s="27"/>
-      <c r="Z47" s="28"/>
-      <c r="AA47" s="32"/>
-      <c r="AB47" s="33"/>
-      <c r="AC47" s="33"/>
-      <c r="AD47" s="33"/>
-      <c r="AE47" s="33"/>
-      <c r="AF47" s="34"/>
-    </row>
-    <row r="48" spans="2:32">
-      <c r="B48" s="26"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="33"/>
-      <c r="J48" s="34"/>
-    </row>
-    <row r="49" spans="2:10">
-      <c r="B49" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="C49" s="24"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="31"/>
-    </row>
-    <row r="50" spans="2:10">
-      <c r="B50" s="26"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="33"/>
-      <c r="I50" s="33"/>
-      <c r="J50" s="34"/>
-    </row>
-    <row r="51" spans="2:10">
-      <c r="B51" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="C51" s="24"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="F51" s="30"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="31"/>
-    </row>
-    <row r="52" spans="2:10">
-      <c r="B52" s="26"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="33"/>
-      <c r="J52" s="34"/>
-    </row>
-    <row r="53" spans="2:10">
-      <c r="B53" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="C53" s="24"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="31"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="15"/>
     </row>
     <row r="54" spans="2:10">
-      <c r="B54" s="26"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="33"/>
-      <c r="I54" s="33"/>
-      <c r="J54" s="34"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="166">
+  <mergeCells count="170">
     <mergeCell ref="B53:D54"/>
     <mergeCell ref="E53:J54"/>
     <mergeCell ref="I32:K32"/>
@@ -3349,6 +3388,10 @@
     <mergeCell ref="B35:C36"/>
     <mergeCell ref="D35:G36"/>
     <mergeCell ref="B37:C38"/>
+    <mergeCell ref="M42:O43"/>
+    <mergeCell ref="P42:U43"/>
+    <mergeCell ref="M44:O45"/>
+    <mergeCell ref="P44:U45"/>
     <mergeCell ref="C26:D27"/>
     <mergeCell ref="E26:H27"/>
     <mergeCell ref="M34:U35"/>
